--- a/Code/Results/Cases/Case_4_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_186/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.431213243848333</v>
+        <v>1.345130039178628</v>
       </c>
       <c r="C2">
-        <v>0.5571690052980216</v>
+        <v>0.2415607546647607</v>
       </c>
       <c r="D2">
-        <v>0.3721311474118494</v>
+        <v>0.5752131711939796</v>
       </c>
       <c r="E2">
-        <v>0.1158848797486236</v>
+        <v>0.2038491611598161</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.042993255584634</v>
+        <v>2.630987599011092</v>
       </c>
       <c r="H2">
-        <v>1.701116763031479</v>
+        <v>2.02042662921491</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04030844502002395</v>
+        <v>0.08525212067916854</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7525872527411863</v>
+        <v>0.5991978372868729</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.100205498911293</v>
+        <v>1.268847915797494</v>
       </c>
       <c r="C3">
-        <v>0.4793385106023891</v>
+        <v>0.2234163728232943</v>
       </c>
       <c r="D3">
-        <v>0.3428346999679377</v>
+        <v>0.5714660739660786</v>
       </c>
       <c r="E3">
-        <v>0.1087539126205783</v>
+        <v>0.2032244090067898</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.753763420787635</v>
+        <v>2.566958220720636</v>
       </c>
       <c r="H3">
-        <v>1.573666948397971</v>
+        <v>1.99676484978562</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03923358062704452</v>
+        <v>0.08535194105846244</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6566572568338955</v>
+        <v>0.5794400758944036</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.900600641050374</v>
+        <v>1.222965749027509</v>
       </c>
       <c r="C4">
-        <v>0.4323514423504662</v>
+        <v>0.2124525988794801</v>
       </c>
       <c r="D4">
-        <v>0.3255202296871147</v>
+        <v>0.5694355102835118</v>
       </c>
       <c r="E4">
-        <v>0.1045750122625151</v>
+        <v>0.2029249450473714</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.582414003699284</v>
+        <v>2.528969958683973</v>
       </c>
       <c r="H4">
-        <v>1.498651436073288</v>
+        <v>1.983123237838754</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03862907779959457</v>
+        <v>0.08543874495920178</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5990540939482472</v>
+        <v>0.5677167756999211</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.820048335922081</v>
+        <v>1.204507760901976</v>
       </c>
       <c r="C5">
-        <v>0.4133741673878149</v>
+        <v>0.2080290173423123</v>
       </c>
       <c r="D5">
-        <v>0.3186182347419475</v>
+        <v>0.5686758551162825</v>
       </c>
       <c r="E5">
-        <v>0.1029179842949688</v>
+        <v>0.2028240339722593</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.513984713644049</v>
+        <v>2.513819723511489</v>
       </c>
       <c r="H5">
-        <v>1.468815659359876</v>
+        <v>1.97778583440072</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03839570343158272</v>
+        <v>0.08548052533149786</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.575866767045035</v>
+        <v>0.5630417536437804</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.806716840758469</v>
+        <v>1.201457258739396</v>
       </c>
       <c r="C6">
-        <v>0.4102324403017121</v>
+        <v>0.2072971502211658</v>
       </c>
       <c r="D6">
-        <v>0.3174810228249072</v>
+        <v>0.5685538074461505</v>
       </c>
       <c r="E6">
-        <v>0.1026454912622974</v>
+        <v>0.2028085525696532</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.502701723312128</v>
+        <v>2.511323895416382</v>
       </c>
       <c r="H6">
-        <v>1.463903534664411</v>
+        <v>1.976912911810871</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03835770781683578</v>
+        <v>0.08548784965605094</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5720327288498481</v>
+        <v>0.5622716413752684</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.89951125051499</v>
+        <v>1.222715850084711</v>
       </c>
       <c r="C7">
-        <v>0.4320948574435306</v>
+        <v>0.2123927620864379</v>
       </c>
       <c r="D7">
-        <v>0.3254265438698809</v>
+        <v>0.5694249908778062</v>
       </c>
       <c r="E7">
-        <v>0.1045524844860672</v>
+        <v>0.2029234986432442</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.581485701943507</v>
+        <v>2.528764304154663</v>
       </c>
       <c r="H7">
-        <v>1.498246191435214</v>
+        <v>1.983050360031285</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03862587916892579</v>
+        <v>0.08543928249299526</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5987402720037025</v>
+        <v>0.5676533128109824</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.31624766918236</v>
+        <v>1.318629116238867</v>
       </c>
       <c r="C8">
-        <v>0.5301470332246936</v>
+        <v>0.2352676860218423</v>
       </c>
       <c r="D8">
-        <v>0.3618800518279102</v>
+        <v>0.5738650225309669</v>
       </c>
       <c r="E8">
-        <v>0.1133820107148082</v>
+        <v>0.2036162628363094</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.941863439256053</v>
+        <v>2.608633125672753</v>
       </c>
       <c r="H8">
-        <v>1.656448711654519</v>
+        <v>2.012083173516942</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03992569893989639</v>
+        <v>0.08528123804657994</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7192158160044571</v>
+        <v>0.5923004864658736</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.168707916321694</v>
+        <v>1.514347671687062</v>
       </c>
       <c r="C9">
-        <v>0.73037447291793</v>
+        <v>0.2815437472201836</v>
       </c>
       <c r="D9">
-        <v>0.4395009202342521</v>
+        <v>0.5847222714084523</v>
       </c>
       <c r="E9">
-        <v>0.1324960194629448</v>
+        <v>0.2056442016785809</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.706751488080926</v>
+        <v>2.775929471921415</v>
       </c>
       <c r="H9">
-        <v>1.996472945231915</v>
+        <v>2.076117843628879</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04296442009296086</v>
+        <v>0.08517419653825087</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9678034946810712</v>
+        <v>0.6438881113305825</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.8266947899466</v>
+        <v>1.662887505595165</v>
       </c>
       <c r="C10">
-        <v>0.8848778089399332</v>
+        <v>0.3164318825472492</v>
       </c>
       <c r="D10">
-        <v>0.5015251419787319</v>
+        <v>0.5940211113299085</v>
       </c>
       <c r="E10">
-        <v>0.1479791051968142</v>
+        <v>0.2075452502255004</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.31797102414879</v>
+        <v>2.905574761223534</v>
       </c>
       <c r="H10">
-        <v>2.270937079362227</v>
+        <v>2.127590167287593</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04557435537810761</v>
+        <v>0.08521993130423056</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.161204785767765</v>
+        <v>0.6838027715396322</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.135609964694197</v>
+        <v>1.731514288898609</v>
       </c>
       <c r="C11">
-        <v>0.957452538913202</v>
+        <v>0.3325021846420952</v>
       </c>
       <c r="D11">
-        <v>0.5311578763081855</v>
+        <v>0.5985410422225357</v>
       </c>
       <c r="E11">
-        <v>0.1554260067979953</v>
+        <v>0.2085000580349821</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.61036479528849</v>
+        <v>2.966065589227412</v>
       </c>
       <c r="H11">
-        <v>2.402863177341715</v>
+        <v>2.151988844281163</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04686443839187859</v>
+        <v>0.08526790447059085</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.252384500993571</v>
+        <v>0.7024049873371894</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.25423365728642</v>
+        <v>1.757654679647942</v>
       </c>
       <c r="C12">
-        <v>0.9853316866943658</v>
+        <v>0.3386166798336774</v>
       </c>
       <c r="D12">
-        <v>0.5426155000893118</v>
+        <v>0.6002944872197418</v>
       </c>
       <c r="E12">
-        <v>0.1583129061910427</v>
+        <v>0.2088746137108508</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.723508552016142</v>
+        <v>2.989193478030813</v>
       </c>
       <c r="H12">
-        <v>2.454005915447908</v>
+        <v>2.161371073852592</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04736979633784699</v>
+        <v>0.08528998970091806</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.287456851403363</v>
+        <v>0.7095136024352229</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.228608137917035</v>
+        <v>1.752018058572901</v>
       </c>
       <c r="C13">
-        <v>0.9793085821096952</v>
+        <v>0.3372985177869907</v>
       </c>
       <c r="D13">
-        <v>0.540136812706379</v>
+        <v>0.5999149876827232</v>
       </c>
       <c r="E13">
-        <v>0.1576880282628821</v>
+        <v>0.2087933679144172</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.699027074672074</v>
+        <v>2.984202573157347</v>
       </c>
       <c r="H13">
-        <v>2.442935737913785</v>
+        <v>2.159344059174714</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04726017386747472</v>
+        <v>0.08528505876458325</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.279877688496512</v>
+        <v>0.7079797661514959</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.145334592023744</v>
+        <v>1.733661803003827</v>
       </c>
       <c r="C14">
-        <v>0.9597377988968105</v>
+        <v>0.333004644283335</v>
       </c>
       <c r="D14">
-        <v>0.5320955611262264</v>
+        <v>0.5986844595844332</v>
       </c>
       <c r="E14">
-        <v>0.1556621168093599</v>
+        <v>0.2085306123280439</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.619622443168282</v>
+        <v>2.967963878483999</v>
       </c>
       <c r="H14">
-        <v>2.407045910780482</v>
+        <v>2.152757851584909</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04690566431116849</v>
+        <v>0.08526964282619431</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.255258480343997</v>
+        <v>0.7029885252110262</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.094549818750124</v>
+        <v>1.722438016387684</v>
       </c>
       <c r="C15">
-        <v>0.9478039697922895</v>
+        <v>0.3303783121557444</v>
       </c>
       <c r="D15">
-        <v>0.5272018913925649</v>
+        <v>0.597936180110878</v>
       </c>
       <c r="E15">
-        <v>0.1544301893348745</v>
+        <v>0.208371360138738</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.571311592688346</v>
+        <v>2.958046137769713</v>
       </c>
       <c r="H15">
-        <v>2.385222141223551</v>
+        <v>2.148742275252459</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04669077505425889</v>
+        <v>0.08526071083033315</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.240252149851145</v>
+        <v>0.6999396394668338</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.806721224826163</v>
+        <v>1.658423917583605</v>
       </c>
       <c r="C16">
-        <v>0.8801864834779565</v>
+        <v>0.3153856932099472</v>
       </c>
       <c r="D16">
-        <v>0.4996197672477365</v>
+        <v>0.5937315696760663</v>
       </c>
       <c r="E16">
-        <v>0.1475012830843774</v>
+        <v>0.2074846665464847</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.299180444856233</v>
+        <v>2.901652321165813</v>
       </c>
       <c r="H16">
-        <v>2.262471505871758</v>
+        <v>2.126015580560619</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04549228230018798</v>
+        <v>0.08521734386420121</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.155317299676696</v>
+        <v>0.682596057461339</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.632780913886563</v>
+        <v>1.619424438497845</v>
       </c>
       <c r="C17">
-        <v>0.8393366265673308</v>
+        <v>0.3062395385485388</v>
       </c>
       <c r="D17">
-        <v>0.4830837445615259</v>
+        <v>0.5912265295273755</v>
       </c>
       <c r="E17">
-        <v>0.1433599024955505</v>
+        <v>0.2069637959123654</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.136149280515014</v>
+        <v>2.867446954991863</v>
       </c>
       <c r="H17">
-        <v>2.189091057083743</v>
+        <v>2.112326511702094</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04478474061144411</v>
+        <v>0.08519770655919601</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.104088333633598</v>
+        <v>0.6720705395870539</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.533620035205956</v>
+        <v>1.597092223384379</v>
       </c>
       <c r="C18">
-        <v>0.8160518502781997</v>
+        <v>0.3009976709352316</v>
       </c>
       <c r="D18">
-        <v>0.4737038844296251</v>
+        <v>0.5898129677242707</v>
       </c>
       <c r="E18">
-        <v>0.1410152716660349</v>
+        <v>0.2066726742841922</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.043704157657459</v>
+        <v>2.847915274695453</v>
       </c>
       <c r="H18">
-        <v>2.147538667164184</v>
+        <v>2.10454541534483</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04438731913548466</v>
+        <v>0.08518896815910892</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.074918291348091</v>
+        <v>0.6660583858080074</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.500190436724438</v>
+        <v>1.589547931108712</v>
       </c>
       <c r="C19">
-        <v>0.8082023786688808</v>
+        <v>0.2992260765874164</v>
       </c>
       <c r="D19">
-        <v>0.4705496498042123</v>
+        <v>0.589339038829138</v>
       </c>
       <c r="E19">
-        <v>0.140227590725754</v>
+        <v>0.2065755587134319</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.012621549268175</v>
+        <v>2.841326523485776</v>
       </c>
       <c r="H19">
-        <v>2.133577358241951</v>
+        <v>2.101926709375107</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04425433969115744</v>
+        <v>0.08518644819780974</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.065090203422237</v>
+        <v>0.6640299491643304</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.651203773593124</v>
+        <v>1.623565718912459</v>
       </c>
       <c r="C20">
-        <v>0.843662873689766</v>
+        <v>0.3072112185259073</v>
       </c>
       <c r="D20">
-        <v>0.4848302313130262</v>
+        <v>0.5914903716912079</v>
       </c>
       <c r="E20">
-        <v>0.1437968304965551</v>
+        <v>0.2070183665945358</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.153364561546994</v>
+        <v>2.87107341729785</v>
       </c>
       <c r="H20">
-        <v>2.19683369442717</v>
+        <v>2.113774152645647</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.044859058648683</v>
+        <v>0.08519953231354194</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.109510590530029</v>
+        <v>0.6731866652656748</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.169747113601034</v>
+        <v>1.739049320516528</v>
       </c>
       <c r="C21">
-        <v>0.9654748561730173</v>
+        <v>0.3342650687052355</v>
       </c>
       <c r="D21">
-        <v>0.5344507733025523</v>
+        <v>0.5990447584947844</v>
       </c>
       <c r="E21">
-        <v>0.1562552823213679</v>
+        <v>0.208607437066771</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.642876690112644</v>
+        <v>2.972727541671304</v>
       </c>
       <c r="H21">
-        <v>2.417553985718428</v>
+        <v>2.154688487668921</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04700931766990735</v>
+        <v>0.08527406440721208</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.262474221475614</v>
+        <v>0.7044528237546785</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.518382996420939</v>
+        <v>1.815416427913021</v>
       </c>
       <c r="C22">
-        <v>1.0474376538032</v>
+        <v>0.3521156408045272</v>
       </c>
       <c r="D22">
-        <v>0.5682771731636365</v>
+        <v>0.6042259742064573</v>
       </c>
       <c r="E22">
-        <v>0.1647928200756432</v>
+        <v>0.2097217290180922</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.97711812057355</v>
+        <v>3.040456108405806</v>
       </c>
       <c r="H22">
-        <v>2.568813597900203</v>
+        <v>2.182262492350105</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04851393344632626</v>
+        <v>0.08534562322950023</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.365668106931437</v>
+        <v>0.7252623966082723</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.331319859883763</v>
+        <v>1.774575856935598</v>
       </c>
       <c r="C23">
-        <v>1.003452199711063</v>
+        <v>0.3425728492595397</v>
       </c>
       <c r="D23">
-        <v>0.550083514494645</v>
+        <v>0.6014382806687308</v>
       </c>
       <c r="E23">
-        <v>0.1601967063700833</v>
+        <v>0.2091200640288164</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.797284055375542</v>
+        <v>3.004188726868335</v>
       </c>
       <c r="H23">
-        <v>2.48737972893565</v>
+        <v>2.167468894088074</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04770104382245322</v>
+        <v>0.08530533629178194</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.310265222855293</v>
+        <v>0.7141214593590774</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.642872202619344</v>
+        <v>1.621693168582624</v>
       </c>
       <c r="C24">
-        <v>0.8417063582562605</v>
+        <v>0.3067718710161671</v>
       </c>
       <c r="D24">
-        <v>0.4840402517142763</v>
+        <v>0.5913710057484991</v>
       </c>
       <c r="E24">
-        <v>0.1435991829213243</v>
+        <v>0.2069936692347305</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.145577560944844</v>
+        <v>2.86943347831928</v>
       </c>
       <c r="H24">
-        <v>2.19333128256423</v>
+        <v>2.11311939728833</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0448254304798823</v>
+        <v>0.08519869894369236</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.107058315478696</v>
+        <v>0.6726819430673316</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.933348678208176</v>
+        <v>1.460574103222655</v>
       </c>
       <c r="C25">
-        <v>0.6751142260704626</v>
+        <v>0.2688705193271801</v>
       </c>
       <c r="D25">
-        <v>0.4177255930618458</v>
+        <v>0.5815537574807053</v>
       </c>
       <c r="E25">
-        <v>0.127099764630799</v>
+        <v>0.2050236160485213</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.492282767645975</v>
+        <v>2.7295054676012</v>
       </c>
       <c r="H25">
-        <v>1.900678447845792</v>
+        <v>2.058024563387363</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04208240428021526</v>
+        <v>0.08518136322630454</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8989238837077593</v>
+        <v>0.6295809060016779</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_186/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.345130039178628</v>
+        <v>2.431213243848163</v>
       </c>
       <c r="C2">
-        <v>0.2415607546647607</v>
+        <v>0.55716900529751</v>
       </c>
       <c r="D2">
-        <v>0.5752131711939796</v>
+        <v>0.3721311474115652</v>
       </c>
       <c r="E2">
-        <v>0.2038491611598161</v>
+        <v>0.1158848797486485</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.630987599011092</v>
+        <v>3.04299325558452</v>
       </c>
       <c r="H2">
-        <v>2.02042662921491</v>
+        <v>1.70111676303145</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08525212067916854</v>
+        <v>0.04030844502004172</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5991978372868729</v>
+        <v>0.7525872527412005</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.268847915797494</v>
+        <v>2.100205498911237</v>
       </c>
       <c r="C3">
-        <v>0.2234163728232943</v>
+        <v>0.4793385106025596</v>
       </c>
       <c r="D3">
-        <v>0.5714660739660786</v>
+        <v>0.3428346999676677</v>
       </c>
       <c r="E3">
-        <v>0.2032244090067898</v>
+        <v>0.1087539126205712</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.566958220720636</v>
+        <v>2.753763420787635</v>
       </c>
       <c r="H3">
-        <v>1.99676484978562</v>
+        <v>1.573666948397829</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08535194105846244</v>
+        <v>0.03923358062704096</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5794400758944036</v>
+        <v>0.6566572568338955</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.222965749027509</v>
+        <v>1.90060064105046</v>
       </c>
       <c r="C4">
-        <v>0.2124525988794801</v>
+        <v>0.4323514423506936</v>
       </c>
       <c r="D4">
-        <v>0.5694355102835118</v>
+        <v>0.3255202296872994</v>
       </c>
       <c r="E4">
-        <v>0.2029249450473714</v>
+        <v>0.1045750122624796</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.528969958683973</v>
+        <v>2.582414003699228</v>
       </c>
       <c r="H4">
-        <v>1.983123237838754</v>
+        <v>1.498651436073487</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08543874495920178</v>
+        <v>0.0386290777996976</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5677167756999211</v>
+        <v>0.5990540939482329</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.204507760901976</v>
+        <v>1.820048335922081</v>
       </c>
       <c r="C5">
-        <v>0.2080290173423123</v>
+        <v>0.4133741673875875</v>
       </c>
       <c r="D5">
-        <v>0.5686758551162825</v>
+        <v>0.3186182347421607</v>
       </c>
       <c r="E5">
-        <v>0.2028240339722593</v>
+        <v>0.1029179842949191</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.513819723511489</v>
+        <v>2.513984713644078</v>
       </c>
       <c r="H5">
-        <v>1.97778583440072</v>
+        <v>1.468815659359876</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08548052533149786</v>
+        <v>0.0383957034315614</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5630417536437804</v>
+        <v>0.575866767045035</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.201457258739396</v>
+        <v>1.806716840758526</v>
       </c>
       <c r="C6">
-        <v>0.2072971502211658</v>
+        <v>0.4102324403019963</v>
       </c>
       <c r="D6">
-        <v>0.5685538074461505</v>
+        <v>0.3174810228251204</v>
       </c>
       <c r="E6">
-        <v>0.2028085525696532</v>
+        <v>0.1026454912623009</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.511323895416382</v>
+        <v>2.502701723312185</v>
       </c>
       <c r="H6">
-        <v>1.976912911810871</v>
+        <v>1.463903534664411</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08548784965605094</v>
+        <v>0.03835770781682868</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5622716413752684</v>
+        <v>0.572032728849841</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.222715850084711</v>
+        <v>1.899511250514905</v>
       </c>
       <c r="C7">
-        <v>0.2123927620864379</v>
+        <v>0.4320948574433032</v>
       </c>
       <c r="D7">
-        <v>0.5694249908778062</v>
+        <v>0.3254265438698809</v>
       </c>
       <c r="E7">
-        <v>0.2029234986432442</v>
+        <v>0.1045524844860459</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.528764304154663</v>
+        <v>2.581485701943478</v>
       </c>
       <c r="H7">
-        <v>1.983050360031285</v>
+        <v>1.498246191435186</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08543928249299526</v>
+        <v>0.03862587916891513</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5676533128109824</v>
+        <v>0.5987402720037238</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.318629116238867</v>
+        <v>2.316247669182303</v>
       </c>
       <c r="C8">
-        <v>0.2352676860218423</v>
+        <v>0.5301470332246936</v>
       </c>
       <c r="D8">
-        <v>0.5738650225309669</v>
+        <v>0.3618800518281375</v>
       </c>
       <c r="E8">
-        <v>0.2036162628363094</v>
+        <v>0.1133820107147621</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.608633125672753</v>
+        <v>2.941863439256053</v>
       </c>
       <c r="H8">
-        <v>2.012083173516942</v>
+        <v>1.656448711654605</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08528123804657994</v>
+        <v>0.03992569893983955</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5923004864658736</v>
+        <v>0.7192158160044642</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.514347671687062</v>
+        <v>3.168707916321921</v>
       </c>
       <c r="C9">
-        <v>0.2815437472201836</v>
+        <v>0.7303744729184132</v>
       </c>
       <c r="D9">
-        <v>0.5847222714084523</v>
+        <v>0.4395009202341384</v>
       </c>
       <c r="E9">
-        <v>0.2056442016785809</v>
+        <v>0.1324960194629519</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.775929471921415</v>
+        <v>3.706751488080869</v>
       </c>
       <c r="H9">
-        <v>2.076117843628879</v>
+        <v>1.996472945231915</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08517419653825087</v>
+        <v>0.04296442009297863</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6438881113305825</v>
+        <v>0.967803494681057</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.662887505595165</v>
+        <v>3.826694789946714</v>
       </c>
       <c r="C10">
-        <v>0.3164318825472492</v>
+        <v>0.88487780893999</v>
       </c>
       <c r="D10">
-        <v>0.5940211113299085</v>
+        <v>0.501525141978334</v>
       </c>
       <c r="E10">
-        <v>0.2075452502255004</v>
+        <v>0.1479791051967787</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.905574761223534</v>
+        <v>4.317971024148875</v>
       </c>
       <c r="H10">
-        <v>2.127590167287593</v>
+        <v>2.270937079362227</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08521993130423056</v>
+        <v>0.04557435537807208</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6838027715396322</v>
+        <v>1.161204785767751</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.731514288898609</v>
+        <v>4.135609964694027</v>
       </c>
       <c r="C11">
-        <v>0.3325021846420952</v>
+        <v>0.9574525389132305</v>
       </c>
       <c r="D11">
-        <v>0.5985410422225357</v>
+        <v>0.531157876308157</v>
       </c>
       <c r="E11">
-        <v>0.2085000580349821</v>
+        <v>0.1554260067979953</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.966065589227412</v>
+        <v>4.61036479528849</v>
       </c>
       <c r="H11">
-        <v>2.151988844281163</v>
+        <v>2.402863177341715</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08526790447059085</v>
+        <v>0.0468644383920136</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7024049873371894</v>
+        <v>1.252384500993571</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.757654679647942</v>
+        <v>4.25423365728642</v>
       </c>
       <c r="C12">
-        <v>0.3386166798336774</v>
+        <v>0.9853316866943658</v>
       </c>
       <c r="D12">
-        <v>0.6002944872197418</v>
+        <v>0.542615500089255</v>
       </c>
       <c r="E12">
-        <v>0.2088746137108508</v>
+        <v>0.1583129061910107</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.989193478030813</v>
+        <v>4.723508552016142</v>
       </c>
       <c r="H12">
-        <v>2.161371073852592</v>
+        <v>2.454005915447794</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08528998970091806</v>
+        <v>0.04736979633788962</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7095136024352229</v>
+        <v>1.287456851403334</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.752018058572901</v>
+        <v>4.228608137917092</v>
       </c>
       <c r="C13">
-        <v>0.3372985177869907</v>
+        <v>0.9793085821097236</v>
       </c>
       <c r="D13">
-        <v>0.5999149876827232</v>
+        <v>0.540136812706379</v>
       </c>
       <c r="E13">
-        <v>0.2087933679144172</v>
+        <v>0.1576880282629034</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.984202573157347</v>
+        <v>4.69902707467196</v>
       </c>
       <c r="H13">
-        <v>2.159344059174714</v>
+        <v>2.442935737913729</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08528505876458325</v>
+        <v>0.04726017386744985</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7079797661514959</v>
+        <v>1.279877688496512</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.733661803003827</v>
+        <v>4.145334592023744</v>
       </c>
       <c r="C14">
-        <v>0.333004644283335</v>
+        <v>0.9597377988964979</v>
       </c>
       <c r="D14">
-        <v>0.5986844595844332</v>
+        <v>0.5320955611257148</v>
       </c>
       <c r="E14">
-        <v>0.2085306123280439</v>
+        <v>0.1556621168093919</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.967963878483999</v>
+        <v>4.619622443168453</v>
       </c>
       <c r="H14">
-        <v>2.152757851584909</v>
+        <v>2.407045910780482</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08526964282619431</v>
+        <v>0.04690566431099441</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7029885252110262</v>
+        <v>1.255258480344011</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.722438016387684</v>
+        <v>4.094549818750124</v>
       </c>
       <c r="C15">
-        <v>0.3303783121557444</v>
+        <v>0.9478039697920337</v>
       </c>
       <c r="D15">
-        <v>0.597936180110878</v>
+        <v>0.5272018913925933</v>
       </c>
       <c r="E15">
-        <v>0.208371360138738</v>
+        <v>0.1544301893348674</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.958046137769713</v>
+        <v>4.571311592688289</v>
       </c>
       <c r="H15">
-        <v>2.148742275252459</v>
+        <v>2.385222141223437</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08526071083033315</v>
+        <v>0.04669077505431574</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6999396394668338</v>
+        <v>1.240252149851145</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.658423917583605</v>
+        <v>3.806721224826333</v>
       </c>
       <c r="C16">
-        <v>0.3153856932099472</v>
+        <v>0.8801864834777007</v>
       </c>
       <c r="D16">
-        <v>0.5937315696760663</v>
+        <v>0.4996197672479354</v>
       </c>
       <c r="E16">
-        <v>0.2074846665464847</v>
+        <v>0.1475012830844378</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.901652321165813</v>
+        <v>4.299180444856233</v>
       </c>
       <c r="H16">
-        <v>2.126015580560619</v>
+        <v>2.262471505871872</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08521734386420121</v>
+        <v>0.04549228230006008</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.682596057461339</v>
+        <v>1.15531729967671</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.619424438497845</v>
+        <v>3.632780913886506</v>
       </c>
       <c r="C17">
-        <v>0.3062395385485388</v>
+        <v>0.8393366265665918</v>
       </c>
       <c r="D17">
-        <v>0.5912265295273755</v>
+        <v>0.4830837445614122</v>
       </c>
       <c r="E17">
-        <v>0.2069637959123654</v>
+        <v>0.143359902495579</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.867446954991863</v>
+        <v>4.136149280515099</v>
       </c>
       <c r="H17">
-        <v>2.112326511702094</v>
+        <v>2.18909105708363</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08519770655919601</v>
+        <v>0.04478474061136239</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6720705395870539</v>
+        <v>1.104088333633612</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.597092223384379</v>
+        <v>3.533620035205786</v>
       </c>
       <c r="C18">
-        <v>0.3009976709352316</v>
+        <v>0.816051850277745</v>
       </c>
       <c r="D18">
-        <v>0.5898129677242707</v>
+        <v>0.4737038844292556</v>
       </c>
       <c r="E18">
-        <v>0.2066726742841922</v>
+        <v>0.1410152716660775</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.847915274695453</v>
+        <v>4.04370415765743</v>
       </c>
       <c r="H18">
-        <v>2.10454541534483</v>
+        <v>2.147538667164241</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08518896815910892</v>
+        <v>0.04438731913571914</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6660583858080074</v>
+        <v>1.074918291348105</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.589547931108712</v>
+        <v>3.500190436724552</v>
       </c>
       <c r="C19">
-        <v>0.2992260765874164</v>
+        <v>0.8082023786691366</v>
       </c>
       <c r="D19">
-        <v>0.589339038829138</v>
+        <v>0.4705496498042692</v>
       </c>
       <c r="E19">
-        <v>0.2065755587134319</v>
+        <v>0.1402275907258392</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.841326523485776</v>
+        <v>4.012621549268118</v>
       </c>
       <c r="H19">
-        <v>2.101926709375107</v>
+        <v>2.133577358241865</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08518644819780974</v>
+        <v>0.04425433969117165</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6640299491643304</v>
+        <v>1.06509020342223</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.623565718912459</v>
+        <v>3.651203773593124</v>
       </c>
       <c r="C20">
-        <v>0.3072112185259073</v>
+        <v>0.8436628736898228</v>
       </c>
       <c r="D20">
-        <v>0.5914903716912079</v>
+        <v>0.4848302313131398</v>
       </c>
       <c r="E20">
-        <v>0.2070183665945358</v>
+        <v>0.1437968304965658</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.87107341729785</v>
+        <v>4.153364561547022</v>
       </c>
       <c r="H20">
-        <v>2.113774152645647</v>
+        <v>2.19683369442717</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08519953231354194</v>
+        <v>0.0448590586489459</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6731866652656748</v>
+        <v>1.109510590530022</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.739049320516528</v>
+        <v>4.169747113601147</v>
       </c>
       <c r="C21">
-        <v>0.3342650687052355</v>
+        <v>0.96547485617333</v>
       </c>
       <c r="D21">
-        <v>0.5990447584947844</v>
+        <v>0.5344507733027513</v>
       </c>
       <c r="E21">
-        <v>0.208607437066771</v>
+        <v>0.1562552823213679</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.972727541671304</v>
+        <v>4.642876690112814</v>
       </c>
       <c r="H21">
-        <v>2.154688487668921</v>
+        <v>2.417553985718428</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08527406440721208</v>
+        <v>0.04700931766999616</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7044528237546785</v>
+        <v>1.262474221475671</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.815416427913021</v>
+        <v>4.518382996420883</v>
       </c>
       <c r="C22">
-        <v>0.3521156408045272</v>
+        <v>1.047437653803144</v>
       </c>
       <c r="D22">
-        <v>0.6042259742064573</v>
+        <v>0.568277173163608</v>
       </c>
       <c r="E22">
-        <v>0.2097217290180922</v>
+        <v>0.1647928200755047</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.040456108405806</v>
+        <v>4.977118120573607</v>
       </c>
       <c r="H22">
-        <v>2.182262492350105</v>
+        <v>2.568813597900203</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08534562322950023</v>
+        <v>0.04851393344624455</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7252623966082723</v>
+        <v>1.365668106931437</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.774575856935598</v>
+        <v>4.33131985988382</v>
       </c>
       <c r="C23">
-        <v>0.3425728492595397</v>
+        <v>1.00345219971129</v>
       </c>
       <c r="D23">
-        <v>0.6014382806687308</v>
+        <v>0.5500835144948724</v>
       </c>
       <c r="E23">
-        <v>0.2091200640288164</v>
+        <v>0.1601967063700585</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.004188726868335</v>
+        <v>4.797284055375655</v>
       </c>
       <c r="H23">
-        <v>2.167468894088074</v>
+        <v>2.487379728935593</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08530533629178194</v>
+        <v>0.0477010438223715</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7141214593590774</v>
+        <v>1.310265222855293</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.621693168582624</v>
+        <v>3.642872202619117</v>
       </c>
       <c r="C24">
-        <v>0.3067718710161671</v>
+        <v>0.8417063582562889</v>
       </c>
       <c r="D24">
-        <v>0.5913710057484991</v>
+        <v>0.4840402517146742</v>
       </c>
       <c r="E24">
-        <v>0.2069936692347305</v>
+        <v>0.1435991829213314</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.86943347831928</v>
+        <v>4.145577560944815</v>
       </c>
       <c r="H24">
-        <v>2.11311939728833</v>
+        <v>2.193331282564003</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08519869894369236</v>
+        <v>0.04482543048003862</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6726819430673316</v>
+        <v>1.107058315478689</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.460574103222655</v>
+        <v>2.933348678208176</v>
       </c>
       <c r="C25">
-        <v>0.2688705193271801</v>
+        <v>0.675114226070491</v>
       </c>
       <c r="D25">
-        <v>0.5815537574807053</v>
+        <v>0.4177255930617179</v>
       </c>
       <c r="E25">
-        <v>0.2050236160485213</v>
+        <v>0.1270997646308025</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.7295054676012</v>
+        <v>3.492282767646032</v>
       </c>
       <c r="H25">
-        <v>2.058024563387363</v>
+        <v>1.900678447845792</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08518136322630454</v>
+        <v>0.04208240428022947</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6295809060016779</v>
+        <v>0.8989238837077593</v>
       </c>
       <c r="N25">
         <v>0</v>
